--- a/database design.xlsx
+++ b/database design.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\MALE FASHION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\cozastore\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="98">
   <si>
     <t>id</t>
   </si>
@@ -32,107 +32,299 @@
     <t>product_name</t>
   </si>
   <si>
-    <t>product price</t>
-  </si>
-  <si>
-    <t>product image</t>
-  </si>
-  <si>
-    <t>product color</t>
-  </si>
-  <si>
-    <t>product size</t>
-  </si>
-  <si>
-    <t>product description</t>
-  </si>
-  <si>
-    <t>product stock</t>
-  </si>
-  <si>
-    <t>PRODUCT TABLE</t>
-  </si>
-  <si>
-    <t>usename</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
     <t>password</t>
   </si>
   <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>bank card number</t>
-  </si>
-  <si>
-    <t>USER TABLE</t>
-  </si>
-  <si>
-    <t>color name</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>COLOR TABLE</t>
-  </si>
-  <si>
-    <t>SIZES TABLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIZES  </t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>XL</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>CATEGORY TABLE</t>
-  </si>
-  <si>
-    <t>category name</t>
-  </si>
-  <si>
     <t>is_available</t>
   </si>
   <si>
-    <t>category image</t>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
-    <t>products purchased</t>
+    <t>Field_Name</t>
+  </si>
+  <si>
+    <t>Data_Types</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>Related_Name</t>
+  </si>
+  <si>
+    <t>Any Constraints</t>
+  </si>
+  <si>
+    <t>bigint</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>not  null,pk,unique</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>not  null</t>
+  </si>
+  <si>
+    <t>last_login</t>
+  </si>
+  <si>
+    <t>timestamp with time zone</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>not null</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>unique,not null</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>date_joined</t>
+  </si>
+  <si>
+    <t>last_joined</t>
+  </si>
+  <si>
+    <t>is_admin</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>is_active</t>
+  </si>
+  <si>
+    <t>is_superadmin</t>
+  </si>
+  <si>
+    <t>is_blocked</t>
+  </si>
+  <si>
+    <t>is_staff</t>
+  </si>
+  <si>
+    <t>cart</t>
+  </si>
+  <si>
+    <t>not null,pk</t>
+  </si>
+  <si>
+    <t>cart_id</t>
+  </si>
+  <si>
+    <t>date_added</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>cart_item</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>fk,cascade</t>
+  </si>
+  <si>
+    <t>product_id</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>pk,not null,unique</t>
+  </si>
+  <si>
+    <t>category_name</t>
+  </si>
+  <si>
+    <t>slug</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>category_image</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id </t>
+  </si>
+  <si>
+    <t>order_number</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>not null,unique</t>
+  </si>
+  <si>
+    <t>address_line_1</t>
+  </si>
+  <si>
+    <t>address_line_2</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>order_note</t>
+  </si>
+  <si>
+    <t>order_total</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip </t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>is_ordered</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>payment_id</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>double precision</t>
+  </si>
+  <si>
+    <t>my_schema.orders_order</t>
+  </si>
+  <si>
+    <t>my_schema.category_category</t>
+  </si>
+  <si>
+    <t>my_schema.cart_cartitem</t>
+  </si>
+  <si>
+    <t>my_schema.cart_cart</t>
+  </si>
+  <si>
+    <t>my_schema.accounts_account</t>
+  </si>
+  <si>
+    <t>orderproduct</t>
+  </si>
+  <si>
+    <t>product_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ordered </t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>not null,fk,cascade,unique</t>
+  </si>
+  <si>
+    <t>my_schema.orders_orderproduct</t>
+  </si>
+  <si>
+    <t>payment_method</t>
+  </si>
+  <si>
+    <t>amount_paid</t>
+  </si>
+  <si>
+    <t>my_schema.orders_payment</t>
+  </si>
+  <si>
+    <t>my_schema.store_product</t>
+  </si>
+  <si>
+    <t>product_slug</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> product_description</t>
+  </si>
+  <si>
+    <t>product_image</t>
+  </si>
+  <si>
+    <t>product_stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is_available</t>
+  </si>
+  <si>
+    <t>created_date</t>
+  </si>
+  <si>
+    <t>modified_date</t>
+  </si>
+  <si>
+    <t>product_brand</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>not null,UNIQUE</t>
+  </si>
+  <si>
+    <t>product_desvription</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,8 +332,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +363,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -220,6 +456,15 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -229,73 +474,104 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,248 +853,1684 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.90625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.81640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.08984375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.81640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.7265625" style="2"/>
-    <col min="12" max="12" width="10.26953125" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="13.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.08984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" style="1"/>
+    <col min="12" max="12" width="10.26953125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C20" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C26" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C35" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="13"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C42" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="15"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C66" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="17"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C79" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79" s="19"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C89" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D89" s="21"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D91" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E91" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F91" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="B92" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="9" t="str">
-        <f>E11</f>
-        <v>COLOR TABLE</v>
-      </c>
-      <c r="F3" s="12" t="str">
-        <f>H11</f>
-        <v>SIZES TABLE</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="15" t="str">
-        <f>B11</f>
-        <v>CATEGORY TABLE</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="str">
-        <f>A1</f>
-        <v>PRODUCT TABLE</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="E11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="H11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="E13" s="3" t="s">
+      <c r="F98" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="H13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="H14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="8"/>
+      <c r="C99" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="A1:H1"/>
+  <mergeCells count="8">
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/database design.xlsx
+++ b/database design.xlsx
@@ -492,13 +492,73 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -512,66 +572,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -855,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89:F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -866,7 +866,7 @@
     <col min="3" max="3" width="13.26953125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.6328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.36328125" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.90625" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.81640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.08984375" style="1" customWidth="1"/>
@@ -877,19 +877,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="D2" s="23"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -910,10 +910,10 @@
       <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -934,10 +934,10 @@
       <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -972,9 +972,9 @@
         <v>17</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
@@ -993,9 +993,9 @@
       <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
@@ -1014,9 +1014,9 @@
       <c r="F8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
@@ -1035,9 +1035,9 @@
       <c r="F9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
@@ -1110,8 +1110,8 @@
       <c r="F13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
@@ -1130,8 +1130,8 @@
       <c r="F14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
@@ -1150,8 +1150,8 @@
       <c r="F15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
@@ -1170,8 +1170,8 @@
       <c r="F16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
@@ -1210,28 +1210,28 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="9"/>
+      <c r="D20" s="29"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1292,28 +1292,28 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="11"/>
+      <c r="D26" s="31"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1428,28 +1428,28 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="13"/>
+      <c r="D35" s="19"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1528,28 +1528,28 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="15"/>
+      <c r="D42" s="21"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="27" t="s">
+      <c r="E43" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="27" t="s">
+      <c r="F43" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1934,28 +1934,28 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D66" s="17"/>
+      <c r="D66" s="25"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="28" t="s">
+      <c r="A67" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="28" t="s">
+      <c r="B67" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="28" t="s">
+      <c r="C67" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="28" t="s">
+      <c r="D67" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E67" s="28" t="s">
+      <c r="E67" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F67" s="28" t="s">
+      <c r="F67" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2142,28 +2142,28 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C79" s="18" t="s">
+      <c r="C79" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="D79" s="19"/>
+      <c r="D79" s="27"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" s="29" t="s">
+      <c r="A80" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B80" s="29" t="s">
+      <c r="B80" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C80" s="29" t="s">
+      <c r="C80" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D80" s="29" t="s">
+      <c r="D80" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E80" s="29" t="s">
+      <c r="E80" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F80" s="29" t="s">
+      <c r="F80" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2296,48 +2296,48 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C89" s="20" t="s">
+      <c r="C89" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D89" s="21"/>
+      <c r="D89" s="17"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="30" t="s">
+      <c r="A90" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="30" t="s">
+      <c r="B90" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C90" s="30" t="s">
+      <c r="C90" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D90" s="30" t="s">
+      <c r="D90" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E90" s="30" t="s">
+      <c r="E90" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F90" s="30" t="s">
+      <c r="F90" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" s="31" t="s">
+    <row r="91" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C91" s="22" t="s">
+      <c r="C91" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D91" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E91" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="F91" s="31" t="s">
+      <c r="D91" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E91" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F91" s="15" t="s">
         <v>34</v>
       </c>
     </row>
